--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -49,13 +49,19 @@
     <t xml:space="preserve">Finished</t>
   </si>
   <si>
-    <t xml:space="preserve">Listing con mayor precio promedio</t>
+    <t xml:space="preserve">Listing disponible con mayor precio promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_max_money.py</t>
   </si>
   <si>
     <t xml:space="preserve">Por País</t>
   </si>
   <si>
-    <t xml:space="preserve">Listing con menor precio promedio</t>
+    <t xml:space="preserve">Listing disponible con menor precio promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_min_money.py</t>
   </si>
   <si>
     <t xml:space="preserve">Listing con mayor número de reviews</t>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Listing que generó más ingresos para su host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_max_money.py</t>
   </si>
   <si>
     <t xml:space="preserve">Porcentaje de arriendos en fechas festivas</t>
@@ -137,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,15 +173,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -200,12 +215,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
@@ -214,6 +223,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC00"/>
         <bgColor rgb="FF00CC33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,7 +248,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,17 +272,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,14 +293,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,22 +309,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -329,7 +356,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0066FF"/>
+          <bgColor rgb="FF3399FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -370,7 +397,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066FF"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -384,7 +411,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -417,20 +444,20 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.26020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,269 +531,271 @@
         <v>9</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11"/>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Listing que se ha arrendado más veces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETADO</t>
   </si>
   <si>
     <t xml:space="preserve">Listings disponibles entre un rango de fechas</t>
@@ -137,8 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -173,13 +177,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -188,12 +192,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,6 +209,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -248,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,20 +276,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,14 +294,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,19 +322,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -441,23 +449,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.26020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,7 +552,7 @@
       <c r="B8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -561,7 +566,7 @@
       <c r="B9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -575,80 +580,105 @@
       <c r="B10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F12" s="12" t="n">
+        <f aca="false">SUMIF(B7:B28,"=2")/2/COUNT(B7:B28)</f>
+        <v>0.227272727272727</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
@@ -656,152 +686,156 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="F12:I14"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B28">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -70,7 +70,13 @@
     <t xml:space="preserve">reviews_max_reviews_by_listing.py</t>
   </si>
   <si>
-    <t xml:space="preserve">Listing que se ha arrendado más veces</t>
+    <t xml:space="preserve">Listing con más reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_most_rented.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">COMPLETADO</t>
@@ -79,9 +85,21 @@
     <t xml:space="preserve">Listings disponibles entre un rango de fechas</t>
   </si>
   <si>
+    <t xml:space="preserve">calendar_available_between_dates.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
     <t xml:space="preserve">Listing más barato disponible entre un rango de fechas</t>
   </si>
   <si>
+    <t xml:space="preserve">calendar_cheapest_available_between_dates.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
     <t xml:space="preserve">Listing con mejor rating entre los listings más baratos</t>
   </si>
   <si>
@@ -100,10 +118,22 @@
     <t xml:space="preserve">Usuario con mayor número de reviews</t>
   </si>
   <si>
+    <t xml:space="preserve">reviews_max_reviews_by_user.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Usuario más disconforme en sus reviews</t>
   </si>
   <si>
+    <t xml:space="preserve">Se entregan los listings que estan disponibles en TODO el intervalo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Usuarios que se arrienden listings mutuamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
   </si>
   <si>
     <t xml:space="preserve">Par de usuarios con mayor similitud en listings visitados</t>
@@ -144,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,12 +208,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -277,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,10 +352,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -457,12 +477,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.26020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,14 +600,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -593,14 +620,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -609,18 +641,23 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="12" t="n">
         <f aca="false">SUMIF(B7:B28,"=2")/2/COUNT(B7:B28)</f>
-        <v>0.227272727272727</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -628,7 +665,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -644,7 +681,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -660,7 +697,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
@@ -672,13 +709,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
@@ -686,19 +723,27 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>0</v>
@@ -707,10 +752,16 @@
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>0</v>
@@ -719,10 +770,16 @@
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>0</v>
@@ -734,7 +791,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0</v>
@@ -746,7 +803,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
@@ -758,7 +815,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
@@ -770,7 +827,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>0</v>
@@ -782,7 +839,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
@@ -794,40 +851,38 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B26" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,165 +5,160 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="948" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
-    <t xml:space="preserve">Métricas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Archivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing disponible con mayor precio promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_max_money.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por País</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing disponible con menor precio promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_min_money.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con mayor número de reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviews_max_reviews_by_listing.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con más reservas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_most_rented.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listings disponibles entre un rango de fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_available_between_dates.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing más barato disponible entre un rango de fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_cheapest_available_between_dates.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con mejor rating entre los listings más baratos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing más barato entre los listings con mejor rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con reviews más negativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con más listings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_max_number_of_user_listing.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con mayor número de reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviews_max_reviews_by_user.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario más disconforme en sus reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se entregan los listings que estan disponibles en TODO el intervalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuarios que se arrienden listings mutuamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par de usuarios con mayor similitud en listings visitados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing que generó más ingresos para su host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de arriendos en fechas festivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio del valor de cada cama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio del número de baños en relación a los huespedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de listings por barrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con listings en más países</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con reviews en más países</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparativa de precio promedio entre países</t>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Not Implemented</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Nombre Archivo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Listing disponible con mayor precio promedio</t>
+  </si>
+  <si>
+    <t>calendar_max_money.py</t>
+  </si>
+  <si>
+    <t>Por País</t>
+  </si>
+  <si>
+    <t>Listing disponible con menor precio promedio</t>
+  </si>
+  <si>
+    <t>calendar_min_money.py</t>
+  </si>
+  <si>
+    <t>Listing con mayor número de reviews</t>
+  </si>
+  <si>
+    <t>reviews_max_reviews_by_listing.py</t>
+  </si>
+  <si>
+    <t>Listing con más reservas</t>
+  </si>
+  <si>
+    <t>calendar_most_rented.py</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>COMPLETADO</t>
+  </si>
+  <si>
+    <t>Listings disponibles entre un rango de fechas</t>
+  </si>
+  <si>
+    <t>calendar_available_between_dates.py</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Listing más barato disponible entre un rango de fechas</t>
+  </si>
+  <si>
+    <t>calendar_cheapest_available_between_dates.py</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Listing con mejor rating entre los listings más baratos</t>
+  </si>
+  <si>
+    <t>Listing más barato entre los listings con mejor rating</t>
+  </si>
+  <si>
+    <t>Listing con reviews más negativos</t>
+  </si>
+  <si>
+    <t>Usuario con más listings</t>
+  </si>
+  <si>
+    <t>listing_max_number_of_user_listing.py</t>
+  </si>
+  <si>
+    <t>Usuario con mayor número de reviews</t>
+  </si>
+  <si>
+    <t>reviews_max_reviews_by_user.py</t>
+  </si>
+  <si>
+    <t>“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
+  </si>
+  <si>
+    <t>Usuario más disconforme en sus reviews</t>
+  </si>
+  <si>
+    <t>Se entregan los listings que estan disponibles en TODO el intervalo</t>
+  </si>
+  <si>
+    <t>Usuarios que se arrienden listings mutuamente</t>
+  </si>
+  <si>
+    <t>Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
+  </si>
+  <si>
+    <t>Par de usuarios con mayor similitud en listings visitados</t>
+  </si>
+  <si>
+    <t>Listing que generó más ingresos para su host</t>
+  </si>
+  <si>
+    <t>Porcentaje de arriendos en fechas festivas</t>
+  </si>
+  <si>
+    <t>Promedio del valor de cada cama</t>
+  </si>
+  <si>
+    <t>Promedio del número de baños en relación a los huespedes</t>
+  </si>
+  <si>
+    <t>Número de listings por barrio</t>
+  </si>
+  <si>
+    <t>Usuario con listings en más países</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Usuario con reviews en más países</t>
+  </si>
+  <si>
+    <t>Comparativa de precio promedio entre países</t>
   </si>
 </sst>
 </file>
@@ -171,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
@@ -366,9 +361,10 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <sz val="10"/>
         <name val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -378,9 +374,10 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <name val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -390,9 +387,10 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <name val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -472,7 +470,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -782,7 +780,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="3" t="s">
@@ -794,7 +792,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="3" t="s">
@@ -907,8 +905,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="948" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Métricas</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Listing que generó más ingresos para su host</t>
+  </si>
+  <si>
+    <t>listing_max_value_generate.py</t>
   </si>
   <si>
     <t>Porcentaje de arriendos en fechas festivas</t>
@@ -358,47 +361,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3399FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -470,7 +432,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -655,7 +617,7 @@
       </c>
       <c r="F12" s="12" t="n">
         <f aca="false">SUMIF(B7:B28,"=2")/2/COUNT(B7:B28)</f>
-        <v>0.363636363636364</v>
+        <v>0.409090909090909</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -792,16 +754,18 @@
         <v>39</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
@@ -813,7 +777,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
@@ -825,7 +789,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>0</v>
@@ -837,7 +801,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
@@ -849,38 +813,38 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -894,10 +858,10 @@
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Métricas</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Promedio arriendo mes, semana, año.</t>
   </si>
   <si>
     <t>Usuario con reviews en más países</t>
@@ -248,7 +251,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -361,6 +364,17 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -412,7 +426,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -429,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -832,7 +846,7 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,6 +858,18 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -854,7 +880,7 @@
     <mergeCell ref="F10:I11"/>
     <mergeCell ref="F12:I14"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:B28">
+  <conditionalFormatting sqref="B7:B29">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,166 +5,171 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
-    <t>Métricas</t>
-  </si>
-  <si>
-    <t>Leyenda</t>
-  </si>
-  <si>
-    <t>Not Implemented</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Nombre Archivo</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
-    <t>Listing disponible con mayor precio promedio</t>
-  </si>
-  <si>
-    <t>calendar_max_money.py</t>
-  </si>
-  <si>
-    <t>Por País</t>
-  </si>
-  <si>
-    <t>Listing disponible con menor precio promedio</t>
-  </si>
-  <si>
-    <t>calendar_min_money.py</t>
-  </si>
-  <si>
-    <t>Listing con mayor número de reviews</t>
-  </si>
-  <si>
-    <t>reviews_max_reviews_by_listing.py</t>
-  </si>
-  <si>
-    <t>Listing con más reservas</t>
-  </si>
-  <si>
-    <t>calendar_most_rented.py</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>COMPLETADO</t>
-  </si>
-  <si>
-    <t>Listings disponibles entre un rango de fechas</t>
-  </si>
-  <si>
-    <t>calendar_available_between_dates.py</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>Listing más barato disponible entre un rango de fechas</t>
-  </si>
-  <si>
-    <t>calendar_cheapest_available_between_dates.py</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>Listing con mejor rating entre los listings más baratos</t>
-  </si>
-  <si>
-    <t>Listing más barato entre los listings con mejor rating</t>
-  </si>
-  <si>
-    <t>Listing con reviews más negativos</t>
-  </si>
-  <si>
-    <t>Usuario con más listings</t>
-  </si>
-  <si>
-    <t>listing_max_number_of_user_listing.py</t>
-  </si>
-  <si>
-    <t>Usuario con mayor número de reviews</t>
-  </si>
-  <si>
-    <t>reviews_max_reviews_by_user.py</t>
-  </si>
-  <si>
-    <t>“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
-  </si>
-  <si>
-    <t>Usuario más disconforme en sus reviews</t>
-  </si>
-  <si>
-    <t>Se entregan los listings que estan disponibles en TODO el intervalo</t>
-  </si>
-  <si>
-    <t>Usuarios que se arrienden listings mutuamente</t>
-  </si>
-  <si>
-    <t>Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
-  </si>
-  <si>
-    <t>Par de usuarios con mayor similitud en listings visitados</t>
-  </si>
-  <si>
-    <t>Listing que generó más ingresos para su host</t>
-  </si>
-  <si>
-    <t>listing_max_value_generate.py</t>
-  </si>
-  <si>
-    <t>Porcentaje de arriendos en fechas festivas</t>
-  </si>
-  <si>
-    <t>Promedio del valor de cada cama</t>
-  </si>
-  <si>
-    <t>Promedio del número de baños en relación a los huespedes</t>
-  </si>
-  <si>
-    <t>Número de listings por barrio</t>
-  </si>
-  <si>
-    <t>Usuario con listings en más países</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Promedio arriendo mes, semana, año.</t>
-  </si>
-  <si>
-    <t>Usuario con reviews en más países</t>
-  </si>
-  <si>
-    <t>Comparativa de precio promedio entre países</t>
+    <t xml:space="preserve">Métricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing disponible con mayor precio promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_max_money.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por País</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing disponible con menor precio promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_min_money.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con mayor número de reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviews_max_reviews_by_listing.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con más reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_most_rented.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listings disponibles entre un rango de fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_available_between_dates.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing más barato disponible entre un rango de fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_cheapest_available_between_dates.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con mejor rating entre los listings más baratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing más barato entre los listings con mejor rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con reviews más negativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con más listings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing_max_number_of_user_listing.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con mayor número de reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviews_max_reviews_by_user.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario más disconforme en sus reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se entregan los listings que estan disponibles en TODO el intervalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios que se arrienden listings mutuamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par de usuarios con mayor similitud en listings visitados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing que generó más ingresos para su host en un año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing_max_value_generate.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de arriendos en fechas festivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio del valor de cada cama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio del número de baños en relación a los huespedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de listings por barrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con listings en más países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio arriendo mes, semana, año.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con reviews en más países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparativa de precio promedio entre países</t>
   </si>
 </sst>
 </file>
@@ -172,7 +177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
@@ -251,7 +256,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF008000"/>
+        <bgColor rgb="FF00CC33"/>
       </patternFill>
     </fill>
     <fill>
@@ -364,15 +369,42 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
-        <sz val="10"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
         <charset val="1"/>
+        <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3399FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC33"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -426,7 +458,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -446,19 +478,19 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +663,7 @@
       </c>
       <c r="F12" s="12" t="n">
         <f aca="false">SUMIF(B7:B28,"=2")/2/COUNT(B7:B28)</f>
-        <v>0.409090909090909</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -768,7 +800,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>40</v>
@@ -884,10 +916,10 @@
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -895,8 +927,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -170,6 +171,54 @@
   </si>
   <si>
     <t xml:space="preserve">Comparativa de precio promedio entre países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HongKong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewYork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n° of Bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Buying Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Listing price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Reviews (rents) per listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg rents per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Income per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 bedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+ bedrooms</t>
   </si>
 </sst>
 </file>
@@ -307,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,6 +407,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -477,20 +530,17 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,4 +981,123 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,220 +5,221 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
-  <si>
-    <t xml:space="preserve">Métricas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Archivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing disponible con mayor precio promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_max_money.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por País</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing disponible con menor precio promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_min_money.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con mayor número de reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviews_max_reviews_by_listing.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con más reservas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_most_rented.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listings disponibles entre un rango de fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_available_between_dates.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing más barato disponible entre un rango de fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_cheapest_available_between_dates.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con mejor rating entre los listings más baratos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing más barato entre los listings con mejor rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing con reviews más negativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con más listings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_max_number_of_user_listing.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con mayor número de reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviews_max_reviews_by_user.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario más disconforme en sus reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se entregan los listings que estan disponibles en TODO el intervalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuarios que se arrienden listings mutuamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par de usuarios con mayor similitud en listings visitados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing que generó más ingresos para su host en un año</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_max_value_generate.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de arriendos en fechas festivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio del valor de cada cama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio del número de baños en relación a los huespedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de listings por barrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con listings en más países</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio arriendo mes, semana, año.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario con reviews en más países</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparativa de precio promedio entre países</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amsterdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dublin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HongKong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewYork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n° of Bedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property Buying Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Listing price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Reviews (rents) per listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg rents per Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Income per Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 bedroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 bedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 bedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 bedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5+ bedrooms</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+  <si>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Not Implemented</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Nombre Archivo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Listing disponible con mayor precio promedio</t>
+  </si>
+  <si>
+    <t>calendar_max_money.py</t>
+  </si>
+  <si>
+    <t>Por País</t>
+  </si>
+  <si>
+    <t>Listing disponible con menor precio promedio</t>
+  </si>
+  <si>
+    <t>calendar_min_money.py</t>
+  </si>
+  <si>
+    <t>Listing con mayor número de reviews</t>
+  </si>
+  <si>
+    <t>reviews_max_reviews_by_listing.py</t>
+  </si>
+  <si>
+    <t>Listing con más reservas</t>
+  </si>
+  <si>
+    <t>calendar_most_rented.py</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>COMPLETADO</t>
+  </si>
+  <si>
+    <t>Listings disponibles entre un rango de fechas</t>
+  </si>
+  <si>
+    <t>calendar_available_between_dates.py</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Listing más barato disponible entre un rango de fechas</t>
+  </si>
+  <si>
+    <t>calendar_cheapest_available_between_dates.py</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Listing con mejor rating entre los listings más baratos</t>
+  </si>
+  <si>
+    <t>Listing más barato entre los listings con mejor rating</t>
+  </si>
+  <si>
+    <t>Listing con reviews más negativos</t>
+  </si>
+  <si>
+    <t>Usuario con más listings</t>
+  </si>
+  <si>
+    <t>listing_max_number_of_user_listing.py</t>
+  </si>
+  <si>
+    <t>Usuario con mayor número de reviews</t>
+  </si>
+  <si>
+    <t>reviews_max_reviews_by_user.py</t>
+  </si>
+  <si>
+    <t>“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
+  </si>
+  <si>
+    <t>Usuario más disconforme en sus reviews</t>
+  </si>
+  <si>
+    <t>Se entregan los listings que estan disponibles en TODO el intervalo</t>
+  </si>
+  <si>
+    <t>Usuarios que se arrienden listings mutuamente</t>
+  </si>
+  <si>
+    <t>Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
+  </si>
+  <si>
+    <t>Par de usuarios con mayor similitud en listings visitados</t>
+  </si>
+  <si>
+    <t>Listing que generó más ingresos para su host en un año</t>
+  </si>
+  <si>
+    <t>listing_max_value_generate.py</t>
+  </si>
+  <si>
+    <t>Porcentaje de arriendos en fechas festivas</t>
+  </si>
+  <si>
+    <t>Promedio del valor de cada cama</t>
+  </si>
+  <si>
+    <t>Promedio del número de baños en relación a los huespedes</t>
+  </si>
+  <si>
+    <t>Número de listings por barrio</t>
+  </si>
+  <si>
+    <t>Usuario con listings en más países</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Promedio arriendo mes, semana, año.</t>
+  </si>
+  <si>
+    <t>Usuario con reviews en más países</t>
+  </si>
+  <si>
+    <t>Comparativa de precio promedio entre países</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>HongKong</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>n° of Bedrooms</t>
+  </si>
+  <si>
+    <t>Property Buying Price</t>
+  </si>
+  <si>
+    <t>Avg Listing price</t>
+  </si>
+  <si>
+    <t>Avg Reviews (rents) per listing</t>
+  </si>
+  <si>
+    <t>Avg rents per Year</t>
+  </si>
+  <si>
+    <t>Avg Income per Year</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>1 bedroom</t>
+  </si>
+  <si>
+    <t>2 bedrooms</t>
+  </si>
+  <si>
+    <t>3 bedrooms</t>
+  </si>
+  <si>
+    <t>4 bedrooms</t>
+  </si>
+  <si>
+    <t>5+ bedrooms</t>
+  </si>
+  <si>
+    <t>Error ( 0 )</t>
   </si>
 </sst>
 </file>
@@ -226,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
@@ -425,9 +426,10 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <sz val="10"/>
         <name val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -437,9 +439,10 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <name val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -449,9 +452,10 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
         <name val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -539,8 +543,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,8 +984,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -988,10 +995,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1065,30 +1072,156 @@
       <c r="F11" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9266</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4636</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4523</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>32320</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>33597</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">(B12+C12+D12+E12+F12)/5</f>
+        <v>16868.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3487</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>934</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5570</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8242</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">(B13+C13+D13+E13+F13)/5</f>
+        <v>3912.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1707</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2185</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">(B14+C14+D14+E14+F14)/5</f>
+        <v>936.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>457</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">(B15+C15+D15+E15+F15)/5</f>
+        <v>313.4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">10+18+7+3+2</f>
+        <v>40</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">14+4+4+1</f>
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">104+26+4+11+5+2</f>
+        <v>152</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">3+6+4+23+95+1</f>
+        <v>132</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">(B16+C16+D16+E16+F16)/5</f>
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>901</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>548</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4037</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>11740</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">(B17+C17+D17+E17+F17)/5</f>
+        <v>3471.4</v>
       </c>
     </row>
   </sheetData>
@@ -1096,8 +1229,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,221 +5,241 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
-  <si>
-    <t>Métricas</t>
-  </si>
-  <si>
-    <t>Leyenda</t>
-  </si>
-  <si>
-    <t>Not Implemented</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Nombre Archivo</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
-    <t>Listing disponible con mayor precio promedio</t>
-  </si>
-  <si>
-    <t>calendar_max_money.py</t>
-  </si>
-  <si>
-    <t>Por País</t>
-  </si>
-  <si>
-    <t>Listing disponible con menor precio promedio</t>
-  </si>
-  <si>
-    <t>calendar_min_money.py</t>
-  </si>
-  <si>
-    <t>Listing con mayor número de reviews</t>
-  </si>
-  <si>
-    <t>reviews_max_reviews_by_listing.py</t>
-  </si>
-  <si>
-    <t>Listing con más reservas</t>
-  </si>
-  <si>
-    <t>calendar_most_rented.py</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>COMPLETADO</t>
-  </si>
-  <si>
-    <t>Listings disponibles entre un rango de fechas</t>
-  </si>
-  <si>
-    <t>calendar_available_between_dates.py</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>Listing más barato disponible entre un rango de fechas</t>
-  </si>
-  <si>
-    <t>calendar_cheapest_available_between_dates.py</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>Listing con mejor rating entre los listings más baratos</t>
-  </si>
-  <si>
-    <t>Listing más barato entre los listings con mejor rating</t>
-  </si>
-  <si>
-    <t>Listing con reviews más negativos</t>
-  </si>
-  <si>
-    <t>Usuario con más listings</t>
-  </si>
-  <si>
-    <t>listing_max_number_of_user_listing.py</t>
-  </si>
-  <si>
-    <t>Usuario con mayor número de reviews</t>
-  </si>
-  <si>
-    <t>reviews_max_reviews_by_user.py</t>
-  </si>
-  <si>
-    <t>“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
-  </si>
-  <si>
-    <t>Usuario más disconforme en sus reviews</t>
-  </si>
-  <si>
-    <t>Se entregan los listings que estan disponibles en TODO el intervalo</t>
-  </si>
-  <si>
-    <t>Usuarios que se arrienden listings mutuamente</t>
-  </si>
-  <si>
-    <t>Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
-  </si>
-  <si>
-    <t>Par de usuarios con mayor similitud en listings visitados</t>
-  </si>
-  <si>
-    <t>Listing que generó más ingresos para su host en un año</t>
-  </si>
-  <si>
-    <t>listing_max_value_generate.py</t>
-  </si>
-  <si>
-    <t>Porcentaje de arriendos en fechas festivas</t>
-  </si>
-  <si>
-    <t>Promedio del valor de cada cama</t>
-  </si>
-  <si>
-    <t>Promedio del número de baños en relación a los huespedes</t>
-  </si>
-  <si>
-    <t>Número de listings por barrio</t>
-  </si>
-  <si>
-    <t>Usuario con listings en más países</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Promedio arriendo mes, semana, año.</t>
-  </si>
-  <si>
-    <t>Usuario con reviews en más países</t>
-  </si>
-  <si>
-    <t>Comparativa de precio promedio entre países</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>HongKong</t>
-  </si>
-  <si>
-    <t>NewYork</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>n° of Bedrooms</t>
-  </si>
-  <si>
-    <t>Property Buying Price</t>
-  </si>
-  <si>
-    <t>Avg Listing price</t>
-  </si>
-  <si>
-    <t>Avg Reviews (rents) per listing</t>
-  </si>
-  <si>
-    <t>Avg rents per Year</t>
-  </si>
-  <si>
-    <t>Avg Income per Year</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>1 bedroom</t>
-  </si>
-  <si>
-    <t>2 bedrooms</t>
-  </si>
-  <si>
-    <t>3 bedrooms</t>
-  </si>
-  <si>
-    <t>4 bedrooms</t>
-  </si>
-  <si>
-    <t>5+ bedrooms</t>
-  </si>
-  <si>
-    <t>Error ( 0 )</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+  <si>
+    <t xml:space="preserve">Métricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing disponible con mayor precio promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_max_money.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por País</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing disponible con menor precio promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_min_money.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con mayor número de reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviews_max_reviews_by_listing.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con más reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_most_rented.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listings disponibles entre un rango de fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_available_between_dates.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing más barato disponible entre un rango de fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar_cheapest_available_between_dates.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con mejor rating entre los listings más baratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing más barato entre los listings con mejor rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing con reviews más negativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con más listings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing_max_number_of_user_listing.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con mayor número de reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviews_max_reviews_by_user.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“listing que se ha arrendado más veces” no puede ser ya que calendar son los listings “futuros” a partir de mayo 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario más disconforme en sus reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se entregan los listings que estan disponibles en TODO el intervalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios que se arrienden listings mutuamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega el listing con el precio TOTAL mínimo entre los listings disponibles durante TODO el intervalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par de usuarios con mayor similitud en listings visitados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing que generó más ingresos para su host en un año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing_max_value_generate.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de arriendos en fechas festivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio del valor de cada cama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio del número de baños en relación a los huespedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de listings por barrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con listings en más países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio arriendo mes, semana, año.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario con reviews en más países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparativa de precio promedio entre países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HongKong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewYork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n° of Bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Buying Price (native coin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Buying Price (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Listing price (native coin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Listing price (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Reviews (rents) per listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg rents per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Income per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 bedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+ bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error ( 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
   </si>
 </sst>
 </file>
@@ -227,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
@@ -426,10 +446,9 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <sz val="10"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
-        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -439,10 +458,9 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
-        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -452,10 +470,9 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
-        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -540,14 +557,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,8 +1001,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -995,18 +1012,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,198 +1047,333 @@
       <c r="A2" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>1095000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">B4*B28</f>
+        <v>1290183.75</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">C4*C28</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">D4*D28</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">E4*E28</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">F4*F28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>108.56</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>421.37</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>110.03</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>80.11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="0" t="n">
+        <f aca="false">B7*B28</f>
+        <v>127.91082</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">C7*C28</f>
+        <v>84.12705</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">D7*D28</f>
+        <v>53.99603728</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">E7*E28</f>
+        <v>110.03</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">F7*F28</f>
+        <v>94.3896075</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="G17" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>9266</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C18" s="0" t="n">
         <v>4636</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>4523</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>32320</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>33597</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">(B12+C12+D12+E12+F12)/5</f>
+      <c r="G18" s="0" t="n">
+        <f aca="false">(B18+C18+D18+E18+F18)/5</f>
         <v>16868.4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="0" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>3487</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C19" s="0" t="n">
         <v>1329</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>934</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>5570</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>8242</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">(B13+C13+D13+E13+F13)/5</f>
+      <c r="G19" s="0" t="n">
+        <f aca="false">(B19+C19+D19+E19+F19)/5</f>
         <v>3912.4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="0" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C20" s="0" t="n">
         <v>402</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>382</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>1707</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>2185</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">(B14+C14+D14+E14+F14)/5</f>
+      <c r="G20" s="0" t="n">
+        <f aca="false">(B20+C20+D20+E20+F20)/5</f>
         <v>936.8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="0" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C21" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>457</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">(B15+C15+D15+E15+F15)/5</f>
+      <c r="G21" s="0" t="n">
+        <f aca="false">(B21+C21+D21+E21+F21)/5</f>
         <v>313.4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="0" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <f aca="false">10+18+7+3+2</f>
         <v>40</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C22" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <f aca="false">14+4+4+1</f>
         <v>23</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <f aca="false">104+26+4+11+5+2</f>
         <v>152</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <f aca="false">3+6+4+23+95+1</f>
         <v>132</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">(B16+C16+D16+E16+F16)/5</f>
+      <c r="G22" s="0" t="n">
+        <f aca="false">(B22+C22+D22+E22+F22)/5</f>
         <v>79.2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C23" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>548</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>4037</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>11740</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">(B17+C17+D17+E17+F17)/5</f>
+      <c r="G23" s="0" t="n">
+        <f aca="false">(B23+C23+D23+E23+F23)/5</f>
         <v>3471.4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.128144</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1.17825</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1381,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -188,6 +188,9 @@
     <t xml:space="preserve">Paris</t>
   </si>
   <si>
+    <t xml:space="preserve">Madrid</t>
+  </si>
+  <si>
     <t xml:space="preserve">n° of Bedrooms</t>
   </si>
   <si>
@@ -203,13 +206,22 @@
     <t xml:space="preserve">Avg Listing price (USD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg Reviews (rents) per listing</t>
+    <t xml:space="preserve">Avg Monthly Reviews per listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Days of Rent per Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Rents per Month</t>
   </si>
   <si>
     <t xml:space="preserve">Avg rents per Year</t>
   </si>
   <si>
     <t xml:space="preserve">Avg Income per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income/PropertyValue Ratio</t>
   </si>
   <si>
     <t xml:space="preserve">AVG</t>
@@ -377,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,6 +443,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,14 +573,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,18 +1028,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,10 +1056,13 @@
       <c r="F1" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1062,43 +1079,59 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1095000</v>
+        <v>584000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>310312</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2284545.55</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>263510</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
-        <f aca="false">B4*B28</f>
-        <v>1290183.75</v>
+        <f aca="false">B4*B30</f>
+        <v>688098</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">C4*C28</f>
-        <v>0</v>
+        <f aca="false">C4*C30</f>
+        <v>365625.114</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">D4*D28</f>
-        <v>0</v>
+        <f aca="false">D4*D30</f>
+        <v>292750.8049592</v>
       </c>
       <c r="E5" s="0" t="n">
-        <f aca="false">E4*E28</f>
+        <f aca="false">E4*E30</f>
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">F4*F28</f>
+        <f aca="false">F4*F30</f>
+        <v>310480.6575</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">G4*G30</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>108.56</v>
@@ -1115,264 +1148,412 @@
       <c r="F7" s="0" t="n">
         <v>80.11</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>51.44</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="n">
-        <f aca="false">B7*B28</f>
+        <f aca="false">B7*B30</f>
         <v>127.91082</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">C7*C28</f>
+        <f aca="false">C7*C30</f>
         <v>84.12705</v>
       </c>
       <c r="D8" s="0" t="n">
-        <f aca="false">D7*D28</f>
+        <f aca="false">D7*D30</f>
         <v>53.99603728</v>
       </c>
       <c r="E8" s="0" t="n">
-        <f aca="false">E7*E28</f>
+        <f aca="false">E7*E30</f>
         <v>110.03</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">F7*F28</f>
+        <f aca="false">F7*F30</f>
         <v>94.3896075</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">G7*G30</f>
+        <v>60.60918</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>21</v>
+        <v>1.96</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>28</v>
+        <v>1.82</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>18</v>
+        <v>1.67</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>15</v>
+        <v>1.13</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">ROUNDUP(B10*B11,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">ROUNDUP(C10*C11,0)</f>
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">ROUNDUP(D10*D11,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">ROUNDUP(E10*E11,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">ROUNDUP(F10*F11,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">ROUNDUP(G10*G11,0)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>62</v>
+      <c r="A13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">12*B12</f>
+        <v>120</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">12*C12</f>
+        <v>168</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">12*D12</f>
+        <v>156</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">12*E12</f>
+        <v>144</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">12*F12</f>
+        <v>96</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">12*G12</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">B8*B13</f>
+        <v>15349.2984</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">C8*C13</f>
+        <v>14133.3444</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">D8*D13</f>
+        <v>8423.38181568</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">E8*E13</f>
+        <v>15844.32</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">F8*F13</f>
+        <v>9061.40232</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">G8*G13</f>
+        <v>10182.34224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <f aca="false">B15/B5</f>
+        <v>0.0223068493150685</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <f aca="false">C15/C5</f>
+        <v>0.0386552888705561</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <f aca="false">D15/D5</f>
+        <v>0.0287732148741792</v>
+      </c>
+      <c r="E17" s="14" t="e">
+        <f aca="false">E15/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <f aca="false">F15/F5</f>
+        <v>0.0291850783651474</v>
+      </c>
+      <c r="G17" s="14" t="e">
+        <f aca="false">G15/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>9266</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>4636</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>4523</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>32320</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>33597</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">(B18+C18+D18+E18+F18)/5</f>
-        <v>16868.4</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>3487</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>934</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>5570</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>8242</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">(B19+C19+D19+E19+F19)/5</f>
-        <v>3912.4</v>
+      <c r="G19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>8</v>
+        <v>9266</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>402</v>
+        <v>4636</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>382</v>
+        <v>4523</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1707</v>
+        <v>32320</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2185</v>
-      </c>
-      <c r="G20" s="0" t="n">
+        <v>33597</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <f aca="false">(B20+C20+D20+E20+F20)/5</f>
-        <v>936.8</v>
+        <v>16868.4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>362</v>
+        <v>3487</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>180</v>
+        <v>1329</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>57</v>
+        <v>934</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>457</v>
+        <v>5570</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>511</v>
-      </c>
-      <c r="G21" s="0" t="n">
+        <v>8242</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <f aca="false">(B21+C21+D21+E21+F21)/5</f>
-        <v>313.4</v>
+        <v>3912.4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1707</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2185</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">(B22+C22+D22+E22+F22)/5</f>
+        <v>936.8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>457</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">(B23+C23+D23+E23+F23)/5</f>
+        <v>313.4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <f aca="false">10+18+7+3+2</f>
         <v>40</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C24" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <f aca="false">14+4+4+1</f>
         <v>23</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <f aca="false">104+26+4+11+5+2</f>
         <v>152</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <f aca="false">3+6+4+23+95+1</f>
         <v>132</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">(B22+C22+D22+E22+F22)/5</f>
+      <c r="H24" s="0" t="n">
+        <f aca="false">(B24+C24+D24+E24+F24)/5</f>
         <v>79.2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="0" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C25" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>548</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>4037</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>11740</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">(B23+C23+D23+E23+F23)/5</f>
+      <c r="H25" s="0" t="n">
+        <f aca="false">(B25+C25+D25+E25+F25)/5</f>
         <v>3471.4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="0" t="n">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="0" t="n">
         <v>1.17825</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C30" s="0" t="n">
         <v>1.17825</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>0.128144</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F30" s="0" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>1.17825</v>
       </c>
     </row>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t xml:space="preserve">Avg Income per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York</t>
   </si>
   <si>
     <t xml:space="preserve">Income/PropertyValue Ratio</t>
@@ -258,9 +264,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -298,7 +305,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +354,14 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -361,6 +374,13 @@
       <right style="double"/>
       <top style="double"/>
       <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -389,7 +409,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,12 +462,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -461,40 +505,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3399FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC33"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -567,20 +584,17 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +1002,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="3" t="s">
@@ -1028,536 +1042,636 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="15" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="15" t="n">
         <v>584000</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>310312</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="15" t="n">
+        <v>370312</v>
+      </c>
+      <c r="D4" s="15" t="n">
         <v>2284545.55</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="15" t="n">
+        <v>641804</v>
+      </c>
+      <c r="F4" s="15" t="n">
         <v>263510</v>
       </c>
+      <c r="G4" s="15" t="n">
+        <v>244246</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">B4*B30</f>
+      <c r="B5" s="15" t="n">
+        <f aca="false">B4*B31</f>
         <v>688098</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">C4*C30</f>
-        <v>365625.114</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">D4*D30</f>
+      <c r="C5" s="15" t="n">
+        <f aca="false">C4*C31</f>
+        <v>436320.114</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <f aca="false">D4*D31</f>
         <v>292750.8049592</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">E4*E30</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">F4*F30</f>
+      <c r="E5" s="15" t="n">
+        <f aca="false">E4*E31</f>
+        <v>641804</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <f aca="false">F4*F31</f>
         <v>310480.6575</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">G4*G30</f>
-        <v>0</v>
-      </c>
+      <c r="G5" s="15" t="n">
+        <f aca="false">G4*G31</f>
+        <v>287782.8495</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="15" t="n">
         <v>108.56</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="15" t="n">
         <v>71.4</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="15" t="n">
         <v>421.37</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="15" t="n">
         <v>110.03</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="15" t="n">
         <v>80.11</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="15" t="n">
         <v>51.44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">B7*B30</f>
+      <c r="B8" s="17" t="n">
+        <f aca="false">B7*B31</f>
         <v>127.91082</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">C7*C30</f>
+      <c r="C8" s="17" t="n">
+        <f aca="false">C7*C31</f>
         <v>84.12705</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">D7*D30</f>
+      <c r="D8" s="17" t="n">
+        <f aca="false">D7*D31</f>
         <v>53.99603728</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">E7*E30</f>
+      <c r="E8" s="17" t="n">
+        <f aca="false">E7*E31</f>
         <v>110.03</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">F7*F30</f>
+      <c r="F8" s="17" t="n">
+        <f aca="false">F7*F31</f>
         <v>94.3896075</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">G7*G30</f>
+      <c r="G8" s="17" t="n">
+        <f aca="false">G7*G31</f>
         <v>60.60918</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="15" t="n">
         <v>1.3</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="15" t="n">
         <v>1.96</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E10" s="15" t="n">
         <v>1.67</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="15" t="n">
         <v>1.13</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="15" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="15" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">ROUNDUP(B10*B11,0)</f>
-        <v>10</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">ROUNDUP(C10*C11,0)</f>
-        <v>14</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">ROUNDUP(D10*D11,0)</f>
-        <v>13</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">ROUNDUP(E10*E11,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">ROUNDUP(F10*F11,0)</f>
+      <c r="B12" s="15" t="n">
+        <f aca="false">B10*B11</f>
+        <v>9.1</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <f aca="false">C10*C11</f>
+        <v>13.72</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <f aca="false">D10*D11</f>
+        <v>8.96</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <f aca="false">E10*E11</f>
+        <v>11.69</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <f aca="false">F10*F11</f>
+        <v>7.91</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <f aca="false">G10*G11</f>
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="15" t="n">
+        <f aca="false">ROUNDUP(12*B12,0)</f>
+        <v>110</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <f aca="false">ROUNDUP(12*C12,0)</f>
+        <v>165</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <f aca="false">ROUNDUP(12*D12,0)</f>
+        <v>108</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <f aca="false">ROUNDUP(12*E12,0)</f>
+        <v>141</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <f aca="false">ROUNDUP(12*F12,0)</f>
+        <v>95</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <f aca="false">ROUNDUP(12*G12,0)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="17" t="n">
+        <f aca="false">B8*B13</f>
+        <v>14070.1902</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <f aca="false">C8*C13</f>
+        <v>13880.96325</v>
+      </c>
+      <c r="D15" s="17" t="n">
+        <f aca="false">D8*D13</f>
+        <v>5831.57202624</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <f aca="false">E8*E13</f>
+        <v>15514.23</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <f aca="false">F8*F13</f>
+        <v>8967.0127125</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <f aca="false">G8*G13</f>
+        <v>9576.25044</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <f aca="false">B15/B5</f>
+        <v>0.0204479452054795</v>
+      </c>
+      <c r="C18" s="20" t="n">
+        <f aca="false">C15/C5</f>
+        <v>0.0318137138413014</v>
+      </c>
+      <c r="D18" s="20" t="n">
+        <f aca="false">D15/D5</f>
+        <v>0.0199199179898164</v>
+      </c>
+      <c r="E18" s="20" t="n">
+        <f aca="false">E15/E5</f>
+        <v>0.0241728471620619</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <f aca="false">F15/F5</f>
+        <v>0.0288810671321771</v>
+      </c>
+      <c r="G18" s="20" t="n">
+        <f aca="false">G15/G5</f>
+        <v>0.0332759594834716</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="15" t="n">
+        <v>9266</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>4636</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>4523</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>32320</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>33597</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>9021</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <f aca="false">AVERAGE(B21:G21)</f>
+        <v>15560.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="15" t="n">
+        <v>3487</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>934</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>5570</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>8242</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>2343</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <f aca="false">AVERAGE(B22:G22)</f>
+        <v>3650.83333333333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">ROUNDUP(G10*G11,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">12*B12</f>
-        <v>120</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">12*C12</f>
-        <v>168</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">12*D12</f>
-        <v>156</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">12*E12</f>
-        <v>144</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">12*F12</f>
-        <v>96</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">12*G12</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">B8*B13</f>
-        <v>15349.2984</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">C8*C13</f>
-        <v>14133.3444</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">D8*D13</f>
-        <v>8423.38181568</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">E8*E13</f>
-        <v>15844.32</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">F8*F13</f>
-        <v>9061.40232</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">G8*G13</f>
-        <v>10182.34224</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="14" t="n">
-        <f aca="false">B15/B5</f>
-        <v>0.0223068493150685</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <f aca="false">C15/C5</f>
-        <v>0.0386552888705561</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <f aca="false">D15/D5</f>
-        <v>0.0287732148741792</v>
-      </c>
-      <c r="E17" s="14" t="e">
-        <f aca="false">E15/E5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="14" t="n">
-        <f aca="false">F15/F5</f>
-        <v>0.0291850783651474</v>
-      </c>
-      <c r="G17" s="14" t="e">
-        <f aca="false">G15/G5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>9266</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>4636</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>4523</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>32320</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>33597</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <f aca="false">(B20+C20+D20+E20+F20)/5</f>
-        <v>16868.4</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>3487</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>934</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>5570</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>8242</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <f aca="false">(B21+C21+D21+E21+F21)/5</f>
-        <v>3912.4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="C23" s="15" t="n">
         <v>402</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D23" s="15" t="n">
         <v>382</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E23" s="15" t="n">
         <v>1707</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F23" s="15" t="n">
         <v>2185</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <f aca="false">(B22+C22+D22+E22+F22)/5</f>
-        <v>936.8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="G23" s="15" t="n">
+        <v>739</v>
+      </c>
+      <c r="H23" s="17" t="n">
+        <f aca="false">AVERAGE(B23:G23)</f>
+        <v>903.833333333333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="15" t="n">
         <v>362</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C24" s="15" t="n">
         <v>180</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D24" s="15" t="n">
         <v>57</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E24" s="15" t="n">
         <v>457</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F24" s="15" t="n">
         <v>511</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false">(B23+C23+D23+E23+F23)/5</f>
-        <v>313.4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="G24" s="15" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <f aca="false">AVERAGE(B24:G24)</f>
+        <v>294.166666666667</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="15" t="n">
         <f aca="false">10+18+7+3+2</f>
         <v>40</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C25" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D25" s="15" t="n">
         <f aca="false">14+4+4+1</f>
         <v>23</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E25" s="15" t="n">
         <f aca="false">104+26+4+11+5+2</f>
         <v>152</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F25" s="15" t="n">
         <f aca="false">3+6+4+23+95+1</f>
         <v>132</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false">(B24+C24+D24+E24+F24)/5</f>
-        <v>79.2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="G25" s="15" t="n">
+        <v>86</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <f aca="false">AVERAGE(B25:G25)</f>
+        <v>80.3333333333333</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="15" t="n">
         <v>901</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C26" s="15" t="n">
         <v>131</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D26" s="15" t="n">
         <v>548</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E26" s="15" t="n">
         <v>4037</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F26" s="15" t="n">
         <v>11740</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <f aca="false">(B25+C25+D25+E25+F25)/5</f>
-        <v>3471.4</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="G26" s="15" t="n">
+        <v>925</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <f aca="false">AVERAGE(B26:G26)</f>
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="D30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="15" t="n">
         <v>1.17825</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C31" s="15" t="n">
         <v>1.17825</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D31" s="15" t="n">
         <v>0.128144</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E31" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F31" s="15" t="n">
         <v>1.17825</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G31" s="15" t="n">
         <v>1.17825</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B18:G18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t xml:space="preserve">Métricas</t>
   </si>
@@ -258,6 +260,27 @@
   </si>
   <si>
     <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Listing price (Christmas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Listing price (New Year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Avg Price Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatility (Special Dates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Results (Ponderation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Results (Ranking)</t>
   </si>
 </sst>
 </file>
@@ -305,7 +328,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,13 +362,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCFE7F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -358,6 +381,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -409,7 +438,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,6 +521,18 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -504,15 +545,9 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -535,7 +570,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -565,7 +600,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -584,17 +619,20 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,22 +1082,22 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,4 +1718,500 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>108.56</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>421.37</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>110.03</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <v>80.11</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>51.44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="n">
+        <f aca="false">B2*B13</f>
+        <v>127.91082</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <f aca="false">C2*C13</f>
+        <v>84.12705</v>
+      </c>
+      <c r="D3" s="17" t="n">
+        <f aca="false">D2*D13</f>
+        <v>53.99603728</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <f aca="false">E2*E13</f>
+        <v>110.03</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <f aca="false">F2*F13</f>
+        <v>94.3896075</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <f aca="false">G2*G13</f>
+        <v>60.60918</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>444.61</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>118.31</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>79.53</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>529.13</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>519.57</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>151.23</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>534.19</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>462.11</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>146.16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="21" t="n">
+        <f aca="false">((B5/B3)+(B6/B3))/2</f>
+        <v>2.93216007840463</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <f aca="false">((C5/C3)+(C6/C3))/2</f>
+        <v>1.60198176448598</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <f aca="false">((D5/D3)+(D6/D3))/2</f>
+        <v>1.14239864825873</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <f aca="false">((E5/E3)+(E6/E3))/2</f>
+        <v>4.83195492138508</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <f aca="false">((F5/F3)+(F6/F3))/2</f>
+        <v>5.20014875578331</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <f aca="false">((G5/G3)+(G6/G3))/2</f>
+        <v>2.2427295667092</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="15" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <v>0.128144</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1.17825</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <f aca="false">0.7*(6-B2)+0.2*(6-B3)+0.1*(6-B4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <f aca="false">0.7*(6-C2)+0.2*(6-C3)+0.1*(6-C4)</f>
+        <v>3.2</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <f aca="false">0.7*(6-D2)+0.2*(6-D3)+0.1*(6-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <f aca="false">0.7*(6-E2)+0.2*(6-E3)+0.1*(6-E4)</f>
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <f aca="false">0.7*(6-F2)+0.2*(6-F3)+0.1*(6-F4)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <f aca="false">0.7*(6-G2)+0.2*(6-G3)+0.1*(6-G4)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF00CC00"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:G3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF00CC00"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF00CC00"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:G6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF00CC00"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>